--- a/public/files/educators.xlsx
+++ b/public/files/educators.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>队列教职工2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -449,7 +453,7 @@
     <col min="8" max="8" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,8 +481,11 @@
       <c r="I1" t="s">
         <v>13</v>
       </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>

--- a/public/files/educators.xlsx
+++ b/public/files/educators.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/public/files/educators.xlsx
+++ b/public/files/educators.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,22 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小二班,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语文,数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任课班级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小学一年级,小学二年级,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,23 +70,29 @@
   <si>
     <t>所属部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级科目</t>
+  </si>
+  <si>
+    <t>一年级一班:语文,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -133,7 +123,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -149,7 +139,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -435,25 +425,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="7" max="7" width="23.75" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="28.46484375" customWidth="1"/>
+    <col min="2" max="2" width="20.73046875" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" customWidth="1"/>
+    <col min="5" max="5" width="16.86328125" customWidth="1"/>
+    <col min="6" max="6" width="21.265625" customWidth="1"/>
+    <col min="7" max="7" width="23.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,18 +466,15 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -502,16 +489,13 @@
         <v>13111111113</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/educators.xlsx
+++ b/public/files/educators.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0AAF0F-D0D3-41BD-9094-3E1EA7FA5590}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="40920" yWindow="10950" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,75 +25,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学一年级,小学二年级,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学一年级:一年级一班,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列教职工2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级科目</t>
+  </si>
+  <si>
+    <t>一年级一班:语文,</t>
+  </si>
+  <si>
+    <t>员工编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成都外国语学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1988-2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年级主任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级主任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小学一年级,小学二年级,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小学一年级:一年级一班,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队列教职工2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级科目</t>
-  </si>
-  <si>
-    <t>一年级一班:语文,</t>
+    <t>教务主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T001234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -123,7 +136,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -139,7 +152,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -214,6 +227,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -249,6 +279,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,26 +471,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.46484375" customWidth="1"/>
-    <col min="2" max="2" width="20.73046875" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" customWidth="1"/>
-    <col min="5" max="5" width="16.86328125" customWidth="1"/>
-    <col min="6" max="6" width="21.265625" customWidth="1"/>
-    <col min="7" max="7" width="23.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.86328125" customWidth="1"/>
+    <col min="1" max="1" width="28.4609375" customWidth="1"/>
+    <col min="2" max="2" width="20.69140625" customWidth="1"/>
+    <col min="3" max="3" width="14.61328125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="20.61328125" customWidth="1"/>
+    <col min="7" max="7" width="16.84375" customWidth="1"/>
+    <col min="8" max="8" width="21.23046875" customWidth="1"/>
+    <col min="9" max="9" width="23.69140625" customWidth="1"/>
+    <col min="10" max="10" width="18.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,56 +498,65 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>13111111113</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>13111111113</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/files/educators.xlsx
+++ b/public/files/educators.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0AAF0F-D0D3-41BD-9094-3E1EA7FA5590}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C0629C-6D8E-4970-994C-C9A05D6371E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="10950" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="14623" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,14 +68,6 @@
   </si>
   <si>
     <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成都外国语学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -472,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -483,14 +475,14 @@
     <col min="1" max="1" width="28.4609375" customWidth="1"/>
     <col min="2" max="2" width="20.69140625" customWidth="1"/>
     <col min="3" max="3" width="14.61328125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="20.61328125" customWidth="1"/>
-    <col min="7" max="7" width="16.84375" customWidth="1"/>
-    <col min="8" max="8" width="21.23046875" customWidth="1"/>
-    <col min="9" max="9" width="23.69140625" customWidth="1"/>
-    <col min="10" max="10" width="18.84375" customWidth="1"/>
+    <col min="4" max="5" width="20.61328125" customWidth="1"/>
+    <col min="6" max="6" width="16.84375" customWidth="1"/>
+    <col min="7" max="7" width="21.23046875" customWidth="1"/>
+    <col min="8" max="8" width="23.69140625" customWidth="1"/>
+    <col min="9" max="9" width="18.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,22 +499,19 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -530,27 +519,24 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
+      <c r="F2">
         <v>13111111113</v>
       </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
         <v>10</v>
       </c>
     </row>
